--- a/tests/test1/d40/ЛМ, 0.0.xlsx
+++ b/tests/test1/d40/ЛМ, 0.0.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.00814150000000069</v>
+        <v>0.005330700000000022</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.007296300000000144</v>
+        <v>0.005867700000000475</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002668299999996293</v>
+        <v>0.009940000000000282</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.003196099999996704</v>
+        <v>0.006939699999999327</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.00400950000000222</v>
+        <v>0.00571009999999994</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.004584499999999991</v>
+        <v>0.004846200000000245</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.0041601</v>
+        <v>0.01711090000000048</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.004636900000001276</v>
+        <v>0.004038800000000009</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.004995300000004477</v>
+        <v>0.004359000000000002</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.003862099999999202</v>
+        <v>0.00690940000000051</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.002320000000004541</v>
+        <v>0.005644400000000438</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.005096199999996998</v>
+        <v>0.004656899999999631</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.00222999999999729</v>
+        <v>0.006159999999999499</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002264099999997882</v>
+        <v>0.008056599999999747</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.00531989999999638</v>
+        <v>0.00552440000000054</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.01375949999999904</v>
+        <v>0.005793699999999902</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.01365950000000282</v>
+        <v>0.01305509999999988</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.004294000000001574</v>
+        <v>0.004977900000000091</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.008008900000000096</v>
+        <v>0.0047978999999998</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.004601899999997272</v>
+        <v>0.006904000000000465</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.01123100000000221</v>
+        <v>0.02383929999999967</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.002714900000000853</v>
+        <v>0.006184499999999815</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.003372400000003495</v>
+        <v>0.006031300000000073</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.005689600000003736</v>
+        <v>0.004990900000000131</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.003701299999995911</v>
+        <v>0.004196699999999609</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.003669999999999618</v>
+        <v>0.005215699999999934</v>
       </c>
       <c r="Y27" t="n">
         <v>8</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.004391099999999426</v>
+        <v>0.009572000000000358</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.005067000000003929</v>
+        <v>0.006885000000000474</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.006875600000000759</v>
+        <v>0.004946699999999637</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.004032000000002256</v>
+        <v>0.005352499999999871</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.004533700000003194</v>
+        <v>0.007286899999999541</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.00384650000000164</v>
+        <v>0.00758589999999959</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002888500000004512</v>
+        <v>0.00690539999999995</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.02913190000000299</v>
+        <v>0.004926499999999834</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.003115200000003426</v>
+        <v>0.003536000000000428</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.00384930000000594</v>
+        <v>0.01032529999999987</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.02526969999999551</v>
+        <v>0.008349099999999332</v>
       </c>
       <c r="Y38" t="n">
         <v>10</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.005050599999997019</v>
+        <v>0.007061700000000393</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.005579099999998505</v>
+        <v>0.006917599999999524</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.01567099999999755</v>
+        <v>0.01162540000000067</v>
       </c>
       <c r="Y41" t="n">
         <v>11</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.004832800000002635</v>
+        <v>0.006366100000000152</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.006454500000003804</v>
+        <v>0.009492999999999974</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.004541000000003237</v>
+        <v>0.009079400000000071</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.003914099999995813</v>
+        <v>0.003416300000000483</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002106699999998796</v>
+        <v>0.004628600000000205</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.00247410000000059</v>
+        <v>0.004647300000000243</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.002271900000003768</v>
+        <v>0.004119199999999879</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002062799999997367</v>
+        <v>0.003442299999999676</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001850600000004476</v>
+        <v>0.005314400000000497</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.001770700000001568</v>
+        <v>0.003562500000000135</v>
       </c>
       <c r="Y51" t="n">
         <v>7</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002746299999998314</v>
+        <v>0.003390200000000121</v>
       </c>
       <c r="Y52" t="n">
         <v>8</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002011700000004168</v>
+        <v>0.00402300000000011</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002035599999999249</v>
+        <v>0.006025900000000028</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.00204819999999728</v>
+        <v>0.004189999999999472</v>
       </c>
       <c r="Y55" t="n">
         <v>8</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002284300000006567</v>
+        <v>0.003933700000000151</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002531899999993925</v>
+        <v>0.00436380000000014</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.002186999999999273</v>
+        <v>0.00673950000000012</v>
       </c>
       <c r="Y58" t="n">
         <v>8</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001772899999998856</v>
+        <v>0.01180390000000031</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.00229850000000198</v>
+        <v>0.004898999999999987</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002023200000003555</v>
+        <v>0.006820399999999616</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.002342400000003408</v>
+        <v>0.006721300000000596</v>
       </c>
       <c r="Y62" t="n">
         <v>7</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002022799999998881</v>
+        <v>0.003792799999999374</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001775700000003155</v>
+        <v>0.003331599999999213</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002402799999998706</v>
+        <v>0.003080599999999656</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002321399999999585</v>
+        <v>0.002759199999999851</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002896200000002125</v>
+        <v>0.004266999999999577</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.00209339999999969</v>
+        <v>0.002530300000000096</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.00278080000000358</v>
+        <v>0.006128699999999654</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.00315909999999775</v>
+        <v>0.002702700000000391</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002527600000000518</v>
+        <v>0.005960699999999264</v>
       </c>
       <c r="Y71" t="n">
         <v>10</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.003774400000004619</v>
+        <v>0.004198299999999655</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.001877300000003856</v>
+        <v>0.003045900000000046</v>
       </c>
       <c r="Y73" t="n">
         <v>7</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.001878499999996563</v>
+        <v>0.005811300000000408</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002535599999994531</v>
+        <v>0.003218799999999966</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.002937400000000423</v>
+        <v>0.004296700000000264</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002086800000000721</v>
+        <v>0.002686399999999978</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002546999999999855</v>
+        <v>0.006262000000000434</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.002051300000005085</v>
+        <v>0.003614200000000345</v>
       </c>
       <c r="Y79" t="n">
         <v>8</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001818900000003509</v>
+        <v>0.00358890000000045</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.00310400000000044</v>
+        <v>0.005806699999999942</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002498799999997914</v>
+        <v>0.003616300000000017</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002395500000005768</v>
+        <v>0.002688800000000491</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002302299999996649</v>
+        <v>0.006054699999999968</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002289699999998618</v>
+        <v>0.004597200000000079</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.002797399999998618</v>
+        <v>0.002664300000000175</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002498800000005019</v>
+        <v>0.003151299999999857</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.002067500000002553</v>
+        <v>0.004997900000000222</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.005663400000003094</v>
+        <v>0.004621799999999787</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.00463969999999847</v>
+        <v>0.004849799999999682</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002064799999999423</v>
+        <v>0.003700799999999838</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002225100000003977</v>
+        <v>0.00639870000000009</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.004555299999999818</v>
+        <v>0.003549800000000047</v>
       </c>
       <c r="Y93" t="n">
         <v>7</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.00399540000000087</v>
+        <v>0.004335400000000433</v>
       </c>
       <c r="Y94" t="n">
         <v>8</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.00403720000000618</v>
+        <v>0.009192099999999925</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.004461800000001404</v>
+        <v>0.006131499999999512</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002159200000001249</v>
+        <v>0.003958100000000186</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.003188500000000261</v>
+        <v>0.00448700000000013</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.004831299999999317</v>
+        <v>0.003544500000000284</v>
       </c>
       <c r="Y99" t="n">
         <v>10</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.003081399999999235</v>
+        <v>0.004185500000000175</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.008821799999999769</v>
+        <v>0.003493100000000027</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d40/ЛМ, 0.0.xlsx
+++ b/tests/test1/d40/ЛМ, 0.0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.005330700000000022</v>
+        <v>0.02121329999999944</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.005867700000000475</v>
+        <v>0.007547899999991614</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.009940000000000282</v>
+        <v>0.004679199999998218</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.006939699999999327</v>
+        <v>0.006976700000009828</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.00571009999999994</v>
+        <v>0.007694000000000756</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.004846200000000245</v>
+        <v>0.009534199999990278</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.01711090000000048</v>
+        <v>0.004754300000001876</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.004038800000000009</v>
+        <v>0.006920100000002094</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.004359000000000002</v>
+        <v>0.01369719999999575</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.00690940000000051</v>
+        <v>0.01212920000000395</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.005644400000000438</v>
+        <v>0.007566500000010024</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.004656899999999631</v>
+        <v>0.004108500000000959</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.006159999999999499</v>
+        <v>0.004965200000000891</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.008056599999999747</v>
+        <v>0.006666900000013243</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.00552440000000054</v>
+        <v>0.005752099999995153</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.005793699999999902</v>
+        <v>0.009860500000002048</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.01305509999999988</v>
+        <v>0.005009699999988015</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.004977900000000091</v>
+        <v>0.01368960000000641</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.0047978999999998</v>
+        <v>0.003556500000001961</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.006904000000000465</v>
+        <v>0.002036399999994387</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.02383929999999967</v>
+        <v>0.007984699999994405</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.006184499999999815</v>
+        <v>0.003042600000000562</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.006031300000000073</v>
+        <v>0.003202000000001703</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.004990900000000131</v>
+        <v>0.007801000000000613</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.004196699999999609</v>
+        <v>0.005781200000001263</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.005215699999999934</v>
+        <v>0.002313200000003235</v>
       </c>
       <c r="Y27" t="n">
         <v>8</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.009572000000000358</v>
+        <v>0.005237500000006889</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.006885000000000474</v>
+        <v>0.005648100000001932</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.004946699999999637</v>
+        <v>0.002687900000012178</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.005352499999999871</v>
+        <v>0.005443099999993706</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.007286899999999541</v>
+        <v>0.005445499999993331</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.00758589999999959</v>
+        <v>0.004319100000003573</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.00690539999999995</v>
+        <v>0.008684999999999832</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.004926499999999834</v>
+        <v>0.00593170000000498</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.003536000000000428</v>
+        <v>0.002067499999995448</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.01032529999999987</v>
+        <v>0.004296300000007136</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.008349099999999332</v>
+        <v>0.005316199999995774</v>
       </c>
       <c r="Y38" t="n">
         <v>10</v>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.007061700000000393</v>
+        <v>0.002676300000004517</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.006917599999999524</v>
+        <v>0.004776800000001913</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.01162540000000067</v>
+        <v>0.003238400000000752</v>
       </c>
       <c r="Y41" t="n">
         <v>11</v>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.006366100000000152</v>
+        <v>0.00358359999999891</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.009492999999999974</v>
+        <v>0.002311500000004685</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.009079400000000071</v>
+        <v>0.002869800000013356</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.003416300000000483</v>
+        <v>0.002124799999990046</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.004628600000000205</v>
+        <v>0.002398500000012405</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.004647300000000243</v>
+        <v>0.002428200000011316</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.004119199999999879</v>
+        <v>0.003264500000000226</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.003442299999999676</v>
+        <v>0.002955199999988167</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.005314400000000497</v>
+        <v>0.002386400000006006</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.003562500000000135</v>
+        <v>0.004354199999994535</v>
       </c>
       <c r="Y51" t="n">
         <v>7</v>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.003390200000000121</v>
+        <v>0.002468800000002602</v>
       </c>
       <c r="Y52" t="n">
         <v>8</v>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.00402300000000011</v>
+        <v>0.004135500000003844</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.006025900000000028</v>
+        <v>0.002821799999992436</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.004189999999999472</v>
+        <v>0.005402899999992883</v>
       </c>
       <c r="Y55" t="n">
         <v>8</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.003933700000000151</v>
+        <v>0.002689599999996517</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.00436380000000014</v>
+        <v>0.002591899999998759</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.00673950000000012</v>
+        <v>0.002297499999997399</v>
       </c>
       <c r="Y58" t="n">
         <v>8</v>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.01180390000000031</v>
+        <v>0.003810700000002498</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.004898999999999987</v>
+        <v>0.00538670000000252</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.006820399999999616</v>
+        <v>0.00286680000000672</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.006721300000000596</v>
+        <v>0.003491500000009751</v>
       </c>
       <c r="Y62" t="n">
         <v>7</v>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.003792799999999374</v>
+        <v>0.002399900000000343</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.003331599999999213</v>
+        <v>0.003669700000003218</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.003080599999999656</v>
+        <v>0.002622199999990471</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002759199999999851</v>
+        <v>0.005077199999988125</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.004266999999999577</v>
+        <v>0.003910500000003481</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002530300000000096</v>
+        <v>0.003207000000003291</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.006128699999999654</v>
+        <v>0.005930899999995631</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002702700000000391</v>
+        <v>0.00364689999999257</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.005960699999999264</v>
+        <v>0.008000199999997903</v>
       </c>
       <c r="Y71" t="n">
         <v>10</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.004198299999999655</v>
+        <v>0.00584779999999796</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.003045900000000046</v>
+        <v>0.002473299999991241</v>
       </c>
       <c r="Y73" t="n">
         <v>7</v>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.005811300000000408</v>
+        <v>0.004396599999992645</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.003218799999999966</v>
+        <v>0.00666739999999777</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6656,7 +6656,7 @@
         <v>36.39646170826966</v>
       </c>
       <c r="H76" t="n">
-        <v>12.41452205462802</v>
+        <v>12.41452205462801</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>9.51087838844895e-13</v>
       </c>
       <c r="V76" t="n">
-        <v>1.522137011603204e-05</v>
+        <v>1.522137011638976e-05</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.004296700000000264</v>
+        <v>0.007065900000000624</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002686399999999978</v>
+        <v>0.00383250000000146</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.006262000000000434</v>
+        <v>0.005362099999999259</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.003614200000000345</v>
+        <v>0.003899899999993295</v>
       </c>
       <c r="Y79" t="n">
         <v>8</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.00358890000000045</v>
+        <v>0.005879000000007295</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.005806699999999942</v>
+        <v>0.03614509999999882</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.003616300000000017</v>
+        <v>0.004385099999993258</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002688800000000491</v>
+        <v>0.01045410000000402</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.006054699999999968</v>
+        <v>0.004492900000002464</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.004597200000000079</v>
+        <v>0.003058300000006398</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.002664300000000175</v>
+        <v>0.003265300000009574</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.003151299999999857</v>
+        <v>0.007194299999994769</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.004997900000000222</v>
+        <v>0.003135299999996732</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.004621799999999787</v>
+        <v>0.005367299999988973</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.004849799999999682</v>
+        <v>0.006935900000001993</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.003700799999999838</v>
+        <v>0.003006900000002588</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.00639870000000009</v>
+        <v>0.002445600000001491</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.003549800000000047</v>
+        <v>0.003874299999992559</v>
       </c>
       <c r="Y93" t="n">
         <v>7</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.004335400000000433</v>
+        <v>0.004163199999993594</v>
       </c>
       <c r="Y94" t="n">
         <v>8</v>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.009192099999999925</v>
+        <v>0.003415699999990807</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.006131499999999512</v>
+        <v>0.003390899999999419</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.003958100000000186</v>
+        <v>0.002433400000001029</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.00448700000000013</v>
+        <v>0.002853299999998171</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.003544500000000284</v>
+        <v>0.004734399999989591</v>
       </c>
       <c r="Y99" t="n">
         <v>10</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.004185500000000175</v>
+        <v>0.002823500000005197</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.003493100000000027</v>
+        <v>0.004713499999994042</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>

--- a/tests/test1/d40/ЛМ, 0.0.xlsx
+++ b/tests/test1/d40/ЛМ, 0.0.xlsx
@@ -582,13 +582,13 @@
         <v>1.382985436161613e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>39.99962409359845</v>
+        <v>39.99962409359842</v>
       </c>
       <c r="G2" t="n">
-        <v>98.78689035774134</v>
+        <v>98.78689035774144</v>
       </c>
       <c r="H2" t="n">
-        <v>11.58210785781588</v>
+        <v>11.58210785781587</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>22.91573248871652</v>
       </c>
       <c r="P2" t="n">
-        <v>38.28134654520503</v>
+        <v>38.28134654520498</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>3.973795234720677e-11</v>
+        <v>3.973795235303034e-11</v>
       </c>
       <c r="V2" t="n">
-        <v>7.208772532507745e-05</v>
+        <v>7.208772533205847e-05</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.02121329999999944</v>
+        <v>0.002651499999998919</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -664,13 +664,13 @@
         <v>4.91301584400867e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>39.9998653209727</v>
+        <v>39.99986532097269</v>
       </c>
       <c r="G3" t="n">
-        <v>75.06410640381459</v>
+        <v>75.06410640381461</v>
       </c>
       <c r="H3" t="n">
-        <v>11.64382052896312</v>
+        <v>11.64382052896311</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>43.53167591109425</v>
       </c>
       <c r="O3" t="n">
-        <v>19.69541914122514</v>
+        <v>19.69541914122515</v>
       </c>
       <c r="P3" t="n">
-        <v>43.53147100922695</v>
+        <v>43.53147100922693</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>4.996823792982536e-12</v>
+        <v>4.996823792972454e-12</v>
       </c>
       <c r="V3" t="n">
-        <v>2.845094646638383e-05</v>
+        <v>2.845094646085731e-05</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.007547899999991614</v>
+        <v>0.002237299999997333</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -746,13 +746,13 @@
         <v>359.9999981304676</v>
       </c>
       <c r="F4" t="n">
-        <v>40.00001491477334</v>
+        <v>40.00001491477332</v>
       </c>
       <c r="G4" t="n">
-        <v>78.4784430885403</v>
+        <v>78.47844308854032</v>
       </c>
       <c r="H4" t="n">
-        <v>3.311131271454633</v>
+        <v>3.31113127145463</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>7.555478362105815</v>
       </c>
       <c r="P4" t="n">
-        <v>38.51163498793861</v>
+        <v>38.51163498793859</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>5.619160465967602e-13</v>
+        <v>5.619160464056704e-13</v>
       </c>
       <c r="V4" t="n">
-        <v>3.151370226974028e-05</v>
+        <v>3.151370226711346e-05</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.004679199999998218</v>
+        <v>0.002448599999993917</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -828,13 +828,13 @@
         <v>1.303284579226414e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>39.99964695333968</v>
+        <v>39.99964695333965</v>
       </c>
       <c r="G5" t="n">
-        <v>99.14406300181918</v>
+        <v>99.14406300181923</v>
       </c>
       <c r="H5" t="n">
-        <v>11.49762063392833</v>
+        <v>11.49762063392832</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>22.79927118141694</v>
       </c>
       <c r="P5" t="n">
-        <v>38.17322568730218</v>
+        <v>38.17322568730212</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>3.529045426410461e-11</v>
+        <v>3.529045426769465e-11</v>
       </c>
       <c r="V5" t="n">
-        <v>6.795416965869346e-05</v>
+        <v>6.795416966568627e-05</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.006976700000009828</v>
+        <v>0.003166399999997793</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -916,7 +916,7 @@
         <v>174.0653319945525</v>
       </c>
       <c r="H6" t="n">
-        <v>9.566754714964935</v>
+        <v>9.566754714964928</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>5.187803388774361</v>
       </c>
       <c r="P6" t="n">
-        <v>26.07184847509766</v>
+        <v>26.07184847509767</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2.803745522428621e-13</v>
+        <v>2.8037455233838e-13</v>
       </c>
       <c r="V6" t="n">
-        <v>1.142062456258415e-05</v>
+        <v>1.142062456489517e-05</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.007694000000000756</v>
+        <v>0.001734700000000089</v>
       </c>
       <c r="Y6" t="n">
         <v>8</v>
@@ -992,13 +992,13 @@
         <v>7.907952845373227e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>39.99980265404245</v>
+        <v>39.99980265404244</v>
       </c>
       <c r="G7" t="n">
-        <v>39.9589161860237</v>
+        <v>39.95891618602371</v>
       </c>
       <c r="H7" t="n">
-        <v>13.44861595113719</v>
+        <v>13.44861595113718</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>13.05312640548418</v>
       </c>
       <c r="P7" t="n">
-        <v>51.07323844922094</v>
+        <v>51.07323844922092</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.235321587291462e-11</v>
+        <v>1.235321587199202e-11</v>
       </c>
       <c r="V7" t="n">
-        <v>5.029263453531801e-05</v>
+        <v>5.029263453766466e-05</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.009534199999990278</v>
+        <v>0.001957500000003165</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>160.7145977835723</v>
       </c>
       <c r="H8" t="n">
-        <v>6.983710897184141</v>
+        <v>6.98371089718414</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.395623962022036e-12</v>
+        <v>1.395623962086032e-12</v>
       </c>
       <c r="V8" t="n">
-        <v>2.723887120670884e-05</v>
+        <v>2.723887120722592e-05</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.004754300000001876</v>
+        <v>0.001709699999999259</v>
       </c>
       <c r="Y8" t="n">
         <v>8</v>
@@ -1162,7 +1162,7 @@
         <v>13.73524254135221</v>
       </c>
       <c r="H9" t="n">
-        <v>12.35952713437252</v>
+        <v>12.35952713437253</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>3.043174594484107e-11</v>
+        <v>3.043174594637796e-11</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0001319392386693972</v>
+        <v>0.0001319392386701159</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.006920100000002094</v>
+        <v>0.001460099999995634</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>5.681223642967858e-11</v>
+        <v>5.681223642926786e-11</v>
       </c>
       <c r="V10" t="n">
-        <v>4.960583444474682e-05</v>
+        <v>4.960583444535423e-05</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.01369719999999575</v>
+        <v>0.002291000000006704</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -1320,13 +1320,13 @@
         <v>359.9999965955401</v>
       </c>
       <c r="F11" t="n">
-        <v>39.99986200749664</v>
+        <v>39.99986200749663</v>
       </c>
       <c r="G11" t="n">
-        <v>1.86734339480303</v>
+        <v>1.867343394803042</v>
       </c>
       <c r="H11" t="n">
-        <v>9.022760706053784</v>
+        <v>9.0227607060538</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>1.80992705514875</v>
       </c>
       <c r="P11" t="n">
-        <v>48.2291239013341</v>
+        <v>48.22912390133411</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.653443356973259e-12</v>
+        <v>2.653443357333249e-12</v>
       </c>
       <c r="V11" t="n">
-        <v>8.038896755786737e-05</v>
+        <v>8.038896756278828e-05</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.01212920000000395</v>
+        <v>0.001453300000001434</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1405,10 +1405,10 @@
         <v>40.00000052690545</v>
       </c>
       <c r="G12" t="n">
-        <v>138.8372751052581</v>
+        <v>138.8372751052582</v>
       </c>
       <c r="H12" t="n">
-        <v>3.249002087167052</v>
+        <v>3.249002087167057</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>6.190703948929891</v>
       </c>
       <c r="P12" t="n">
-        <v>34.65051620810741</v>
+        <v>34.6505162081074</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.798526034173455e-13</v>
+        <v>2.798526034180758e-13</v>
       </c>
       <c r="V12" t="n">
-        <v>2.954063599362837e-05</v>
+        <v>2.954063598844842e-05</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.007566500000010024</v>
+        <v>0.001657599999994375</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1487,10 +1487,10 @@
         <v>39.99999710761553</v>
       </c>
       <c r="G13" t="n">
-        <v>32.44840812761674</v>
+        <v>32.44840812761685</v>
       </c>
       <c r="H13" t="n">
-        <v>3.233717956305232</v>
+        <v>3.233717956305221</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>4.573663332244903</v>
       </c>
       <c r="P13" t="n">
-        <v>40.78814301860536</v>
+        <v>40.78814301860535</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>3.698553392472871e-14</v>
+        <v>3.69855338563836e-14</v>
       </c>
       <c r="V13" t="n">
-        <v>1.581922934432875e-05</v>
+        <v>1.581922933295635e-05</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.004108500000000959</v>
+        <v>0.002305100000000948</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1563,16 +1563,16 @@
         <v>11.88059635818486</v>
       </c>
       <c r="E14" t="n">
-        <v>7.913927364675732e-06</v>
+        <v>7.913927351953512e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>39.99985964168973</v>
+        <v>39.99985964168974</v>
       </c>
       <c r="G14" t="n">
-        <v>27.74949541810547</v>
+        <v>27.74949541810546</v>
       </c>
       <c r="H14" t="n">
-        <v>11.88039915974984</v>
+        <v>11.88039915974985</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>8.875978247409899</v>
       </c>
       <c r="P14" t="n">
-        <v>50.60639292564555</v>
+        <v>50.60639292564557</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1611,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.108688286365065e-11</v>
+        <v>1.108688286374933e-11</v>
       </c>
       <c r="V14" t="n">
-        <v>6.023459002100611e-05</v>
+        <v>6.023459001829533e-05</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.004965200000000891</v>
+        <v>0.002275900000000775</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1648,13 +1648,13 @@
         <v>359.9999943859501</v>
       </c>
       <c r="F15" t="n">
-        <v>40.00006897160228</v>
+        <v>40.00006897160229</v>
       </c>
       <c r="G15" t="n">
-        <v>139.9857347344506</v>
+        <v>139.9857347344505</v>
       </c>
       <c r="H15" t="n">
-        <v>5.850455148991598</v>
+        <v>5.850455148991594</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>10.07090622510914</v>
       </c>
       <c r="P15" t="n">
-        <v>32.50765448399708</v>
+        <v>32.50765448399709</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1693,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>5.608552200857504e-12</v>
+        <v>5.608552201974197e-12</v>
       </c>
       <c r="V15" t="n">
-        <v>4.39201293264124e-05</v>
+        <v>4.392012932971592e-05</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.006666900000013243</v>
+        <v>0.001680200000002685</v>
       </c>
       <c r="Y15" t="n">
         <v>8</v>
@@ -1730,13 +1730,13 @@
         <v>1.940733328062566e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>39.9994562537028</v>
+        <v>39.99945625370279</v>
       </c>
       <c r="G16" t="n">
         <v>92.51035536549</v>
       </c>
       <c r="H16" t="n">
-        <v>12.27771993193823</v>
+        <v>12.27771993193822</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1760,7 +1760,7 @@
         <v>23.38914412135317</v>
       </c>
       <c r="P16" t="n">
-        <v>40.02678412524578</v>
+        <v>40.02678412524576</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>7.826888615950169e-11</v>
+        <v>7.826888616576329e-11</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0001024049942933473</v>
+        <v>0.0001024049942956816</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.005752099999995153</v>
+        <v>0.004265300000000138</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1812,13 +1812,13 @@
         <v>359.9999977849326</v>
       </c>
       <c r="F17" t="n">
-        <v>40.00000706198331</v>
+        <v>40.0000070619833</v>
       </c>
       <c r="G17" t="n">
         <v>152.786875187781</v>
       </c>
       <c r="H17" t="n">
-        <v>5.14671513756504</v>
+        <v>5.146715137565042</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>7.13982864159632</v>
       </c>
       <c r="P17" t="n">
-        <v>32.14042818239015</v>
+        <v>32.14042818239013</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1857,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.786504541006779e-13</v>
+        <v>7.786504539242426e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>2.878572361929325e-05</v>
+        <v>2.878572361584097e-05</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.009860500000002048</v>
+        <v>0.00160929999999837</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1897,10 +1897,10 @@
         <v>39.99967224573012</v>
       </c>
       <c r="G18" t="n">
-        <v>40.19311934564486</v>
+        <v>40.19311934564482</v>
       </c>
       <c r="H18" t="n">
-        <v>9.277616524507922</v>
+        <v>9.277616524507932</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>10.31960565519767</v>
       </c>
       <c r="P18" t="n">
-        <v>46.64211293629055</v>
+        <v>46.64211293629056</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>5.428821823665022e-11</v>
+        <v>5.428821823742404e-11</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0001413333747905733</v>
+        <v>0.0001413333747860265</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.005009699999988015</v>
+        <v>0.001564700000002972</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -1976,10 +1976,10 @@
         <v>3.747562444080749e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>39.9999155926376</v>
+        <v>39.99991559263758</v>
       </c>
       <c r="G19" t="n">
-        <v>53.03986458111576</v>
+        <v>53.03986458111573</v>
       </c>
       <c r="H19" t="n">
         <v>9.366977770229164</v>
@@ -2003,10 +2003,10 @@
         <v>45.29448328127268</v>
       </c>
       <c r="O19" t="n">
-        <v>12.95212141825337</v>
+        <v>12.95212141825336</v>
       </c>
       <c r="P19" t="n">
-        <v>45.29432276563004</v>
+        <v>45.29432276563003</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2021,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2.752568494512493e-12</v>
+        <v>2.752568494802972e-12</v>
       </c>
       <c r="V19" t="n">
-        <v>2.779249207994491e-05</v>
+        <v>2.779249207878528e-05</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.01368960000000641</v>
+        <v>0.002268300000004331</v>
       </c>
       <c r="Y19" t="n">
         <v>9</v>
@@ -2058,13 +2058,13 @@
         <v>9.368376357014126e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>39.99997808545955</v>
+        <v>39.99997808545956</v>
       </c>
       <c r="G20" t="n">
         <v>117.0674174707039</v>
       </c>
       <c r="H20" t="n">
-        <v>9.065434931073025</v>
+        <v>9.06543493107303</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>18.50855348163967</v>
       </c>
       <c r="P20" t="n">
-        <v>34.20255165238948</v>
+        <v>34.2025516523895</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.819168844845873e-13</v>
+        <v>1.819168840929539e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>4.553697308894981e-06</v>
+        <v>4.553697306732885e-06</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.003556500000001961</v>
+        <v>0.001972399999999652</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2140,13 +2140,13 @@
         <v>359.9999931730769</v>
       </c>
       <c r="F21" t="n">
-        <v>40.00008158930127</v>
+        <v>40.00008158930126</v>
       </c>
       <c r="G21" t="n">
-        <v>17.55591967619604</v>
+        <v>17.55591967619605</v>
       </c>
       <c r="H21" t="n">
-        <v>12.13521265286861</v>
+        <v>12.13521265286859</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>6.192821671506802</v>
       </c>
       <c r="P21" t="n">
-        <v>51.56863778533372</v>
+        <v>51.5686377853337</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2185,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>8.17843276938045e-12</v>
+        <v>8.178432767879544e-12</v>
       </c>
       <c r="V21" t="n">
-        <v>6.027894358086918e-05</v>
+        <v>6.027894357688662e-05</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002036399999994387</v>
+        <v>0.001405800000000568</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -2252,7 +2252,7 @@
         <v>27.44393173653955</v>
       </c>
       <c r="P22" t="n">
-        <v>37.03361164013522</v>
+        <v>37.03361164013523</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2267,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.183538026091967e-12</v>
+        <v>1.183538026332665e-12</v>
       </c>
       <c r="V22" t="n">
-        <v>1.161854545909807e-05</v>
+        <v>1.161854545845586e-05</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.007984699999994405</v>
+        <v>0.003104799999995578</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2304,13 +2304,13 @@
         <v>359.9999904167468</v>
       </c>
       <c r="F23" t="n">
-        <v>39.99981809915776</v>
+        <v>39.99981809915775</v>
       </c>
       <c r="G23" t="n">
         <v>8.770052927170775</v>
       </c>
       <c r="H23" t="n">
-        <v>6.469799786907147</v>
+        <v>6.469799786907129</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>2.990963391683193</v>
       </c>
       <c r="P23" t="n">
-        <v>45.11790376526477</v>
+        <v>45.11790376526474</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.562551730091106e-11</v>
+        <v>1.562551729961003e-11</v>
       </c>
       <c r="V23" t="n">
-        <v>0.0002136970288472077</v>
+        <v>0.0002136970288390308</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.003042600000000562</v>
+        <v>0.00142720000000196</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2386,13 +2386,13 @@
         <v>6.506719545409894e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>39.99988820127783</v>
+        <v>39.99988820127784</v>
       </c>
       <c r="G24" t="n">
-        <v>37.52320147086809</v>
+        <v>37.52320147086804</v>
       </c>
       <c r="H24" t="n">
-        <v>8.78003673381969</v>
+        <v>8.780036733819708</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>9.419039073891222</v>
       </c>
       <c r="P24" t="n">
-        <v>46.36483185253476</v>
+        <v>46.36483185253479</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>7.603298288300777e-12</v>
+        <v>7.60329828657267e-12</v>
       </c>
       <c r="V24" t="n">
-        <v>5.785004209657043e-05</v>
+        <v>5.785004208906982e-05</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.003202000000001703</v>
+        <v>0.001538699999997561</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2468,7 +2468,7 @@
         <v>2.387505037579079e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>39.99992912262341</v>
+        <v>39.99992912262342</v>
       </c>
       <c r="G25" t="n">
         <v>93.11366727750256</v>
@@ -2495,7 +2495,7 @@
         <v>40.82017006479759</v>
       </c>
       <c r="O25" t="n">
-        <v>26.7628502689885</v>
+        <v>26.76285026898852</v>
       </c>
       <c r="P25" t="n">
         <v>40.82007634733635</v>
@@ -2513,10 +2513,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.18003559437123e-12</v>
+        <v>1.180035594230863e-12</v>
       </c>
       <c r="V25" t="n">
-        <v>1.209061339890115e-05</v>
+        <v>1.209061339148655e-05</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.007801000000000613</v>
+        <v>0.002270200000005218</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2550,7 +2550,7 @@
         <v>359.9999972753049</v>
       </c>
       <c r="F26" t="n">
-        <v>39.99999459307673</v>
+        <v>39.99999459307674</v>
       </c>
       <c r="G26" t="n">
         <v>172.8030423381462</v>
@@ -2580,7 +2580,7 @@
         <v>6.902498727721606</v>
       </c>
       <c r="P26" t="n">
-        <v>23.99233744772799</v>
+        <v>23.992337447728</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2595,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.254084271253573e-12</v>
+        <v>1.254084272274159e-12</v>
       </c>
       <c r="V26" t="n">
-        <v>1.732623754877695e-05</v>
+        <v>1.732623755093339e-05</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.005781200000001263</v>
+        <v>0.001694899999996835</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -2638,7 +2638,7 @@
         <v>156.6215276895961</v>
       </c>
       <c r="H27" t="n">
-        <v>9.987235601957099</v>
+        <v>9.987235601957098</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2677,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>5.930608099596653e-11</v>
+        <v>5.930608099441129e-11</v>
       </c>
       <c r="V27" t="n">
-        <v>7.320937541214405e-05</v>
+        <v>7.320937541258871e-05</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.002313200000003235</v>
+        <v>0.001662799999998299</v>
       </c>
       <c r="Y27" t="n">
         <v>8</v>
@@ -2717,10 +2717,10 @@
         <v>39.99989876534153</v>
       </c>
       <c r="G28" t="n">
-        <v>55.42849438202199</v>
+        <v>55.42849438202202</v>
       </c>
       <c r="H28" t="n">
-        <v>9.232624932393254</v>
+        <v>9.232624932393245</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2744,7 +2744,7 @@
         <v>13.26275695630195</v>
       </c>
       <c r="P28" t="n">
-        <v>44.86690715507036</v>
+        <v>44.86690715507035</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2759,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>3.908149279170613e-12</v>
+        <v>3.908149279947755e-12</v>
       </c>
       <c r="V28" t="n">
-        <v>3.286978329606296e-05</v>
+        <v>3.286978329970637e-05</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.005237500000006889</v>
+        <v>0.001863499999998908</v>
       </c>
       <c r="Y28" t="n">
         <v>9</v>
@@ -2796,13 +2796,13 @@
         <v>1.178268397978277e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>39.99966381007915</v>
+        <v>39.99966381007912</v>
       </c>
       <c r="G29" t="n">
         <v>76.63013884525154</v>
       </c>
       <c r="H29" t="n">
-        <v>12.77481900422615</v>
+        <v>12.77481900422614</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2823,10 +2823,10 @@
         <v>43.97582692503995</v>
       </c>
       <c r="O29" t="n">
-        <v>21.45486080061465</v>
+        <v>21.45486080061464</v>
       </c>
       <c r="P29" t="n">
-        <v>43.97532707179656</v>
+        <v>43.97532707179653</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2841,10 +2841,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.88565442339028e-11</v>
+        <v>2.885654423952492e-11</v>
       </c>
       <c r="V29" t="n">
-        <v>6.535815947378041e-05</v>
+        <v>6.535815947729094e-05</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.005648100000001932</v>
+        <v>0.002082899999997778</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1.009933979975637e-10</v>
+        <v>1.009933979987035e-10</v>
       </c>
       <c r="V30" t="n">
         <v>8.945048703687018e-05</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.002687900000012178</v>
+        <v>0.001749799999998913</v>
       </c>
       <c r="Y30" t="n">
         <v>9</v>
@@ -2960,13 +2960,13 @@
         <v>359.9999964137228</v>
       </c>
       <c r="F31" t="n">
-        <v>40.00002223563779</v>
+        <v>40.0000222356378</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4764538682487</v>
+        <v>155.4764538682488</v>
       </c>
       <c r="H31" t="n">
-        <v>6.418822550048661</v>
+        <v>6.418822550048666</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2987,10 +2987,10 @@
         <v>30.68820409084247</v>
       </c>
       <c r="O31" t="n">
-        <v>8.182086277360645</v>
+        <v>8.182086277360632</v>
       </c>
       <c r="P31" t="n">
-        <v>30.68830020845653</v>
+        <v>30.68830020845654</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3005,10 +3005,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>2.111913794161631e-12</v>
+        <v>2.11191379422657e-12</v>
       </c>
       <c r="V31" t="n">
-        <v>3.357144847054136e-05</v>
+        <v>3.357144846777655e-05</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.005443099999993706</v>
+        <v>0.001565800000001616</v>
       </c>
       <c r="Y31" t="n">
         <v>8</v>
@@ -3072,7 +3072,7 @@
         <v>15.61526268399309</v>
       </c>
       <c r="P32" t="n">
-        <v>34.68993350520548</v>
+        <v>34.68993350520547</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3087,10 +3087,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>6.184141197309508e-12</v>
+        <v>6.184141198721374e-12</v>
       </c>
       <c r="V32" t="n">
-        <v>2.818333410657058e-05</v>
+        <v>2.818333410833304e-05</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.005445499999993331</v>
+        <v>0.002052100000000223</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3124,13 +3124,13 @@
         <v>2.340831046461757e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>39.99993370374866</v>
+        <v>39.99993370374865</v>
       </c>
       <c r="G33" t="n">
-        <v>51.48972513557527</v>
+        <v>51.4897251355753</v>
       </c>
       <c r="H33" t="n">
-        <v>14.49721911908654</v>
+        <v>14.49721911908653</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>17.04592327272483</v>
       </c>
       <c r="P33" t="n">
-        <v>50.43112365321308</v>
+        <v>50.43112365321306</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -3169,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1.126032976088663e-12</v>
+        <v>1.126032976113059e-12</v>
       </c>
       <c r="V33" t="n">
-        <v>1.358209622215147e-05</v>
+        <v>1.358209622632341e-05</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.004319100000003573</v>
+        <v>0.001963800000005733</v>
       </c>
       <c r="Y33" t="n">
         <v>10</v>
@@ -3209,10 +3209,10 @@
         <v>40.00006703311678</v>
       </c>
       <c r="G34" t="n">
-        <v>154.5995681097096</v>
+        <v>154.5995681097097</v>
       </c>
       <c r="H34" t="n">
-        <v>7.47246817117114</v>
+        <v>7.472468171171147</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>9.721337662008731</v>
       </c>
       <c r="P34" t="n">
-        <v>29.71017924787081</v>
+        <v>29.7101792478708</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3251,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>7.593578680545844e-12</v>
+        <v>7.593578680015849e-12</v>
       </c>
       <c r="V34" t="n">
-        <v>4.563464655876679e-05</v>
+        <v>4.563464655437062e-05</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.008684999999999832</v>
+        <v>0.001624399999997195</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
@@ -3291,10 +3291,10 @@
         <v>39.99969116516215</v>
       </c>
       <c r="G35" t="n">
-        <v>44.7326892238712</v>
+        <v>44.73268922387123</v>
       </c>
       <c r="H35" t="n">
-        <v>8.399400825378079</v>
+        <v>8.399400825378075</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3318,7 +3318,7 @@
         <v>10.51068295838548</v>
       </c>
       <c r="P35" t="n">
-        <v>45.30378643345114</v>
+        <v>45.30378643345113</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3333,10 +3333,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>4.944869474797942e-11</v>
+        <v>4.944869474893517e-11</v>
       </c>
       <c r="V35" t="n">
-        <v>0.0001412782789908992</v>
+        <v>0.0001412782789929285</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.00593170000000498</v>
+        <v>0.001927300000005516</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3376,7 +3376,7 @@
         <v>6.940998892171685</v>
       </c>
       <c r="H36" t="n">
-        <v>12.36160422767843</v>
+        <v>12.36160422767842</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>3.254534901099705</v>
       </c>
       <c r="P36" t="n">
-        <v>52.19292494065066</v>
+        <v>52.19292494065064</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -3415,10 +3415,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>9.458855498077538e-12</v>
+        <v>9.458855497785467e-12</v>
       </c>
       <c r="V36" t="n">
-        <v>9.646460174037491e-05</v>
+        <v>9.646460173848406e-05</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.002067499999995448</v>
+        <v>0.001464000000005683</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3452,13 +3452,13 @@
         <v>2.235156392003664e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>39.99995352533438</v>
+        <v>39.99995352533437</v>
       </c>
       <c r="G37" t="n">
-        <v>82.45010274530989</v>
+        <v>82.45010274530991</v>
       </c>
       <c r="H37" t="n">
-        <v>6.700173552578883</v>
+        <v>6.700173552578881</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         <v>13.37639261939744</v>
       </c>
       <c r="P37" t="n">
-        <v>39.51189763484433</v>
+        <v>39.51189763484432</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3497,10 +3497,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>9.849150888490946e-13</v>
+        <v>9.849150890725537e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>1.739596209567958e-05</v>
+        <v>1.73959620969735e-05</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.004296300000007136</v>
+        <v>0.001855300000002558</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3534,13 +3534,13 @@
         <v>1.228622752678593e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>39.99997172978123</v>
+        <v>39.99997172978126</v>
       </c>
       <c r="G38" t="n">
-        <v>131.1313524793213</v>
+        <v>131.1313524793212</v>
       </c>
       <c r="H38" t="n">
-        <v>10.21936487128385</v>
+        <v>10.21936487128386</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3564,7 +3564,7 @@
         <v>19.54422495158334</v>
       </c>
       <c r="P38" t="n">
-        <v>31.10941882016249</v>
+        <v>31.10941882016252</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>3.150573099552991e-13</v>
+        <v>3.150573095000125e-13</v>
       </c>
       <c r="V38" t="n">
-        <v>5.027317561672985e-06</v>
+        <v>5.027317556991002e-06</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.005316199999995774</v>
+        <v>0.002004900000002863</v>
       </c>
       <c r="Y38" t="n">
         <v>10</v>
@@ -3616,13 +3616,13 @@
         <v>359.9999982535028</v>
       </c>
       <c r="F39" t="n">
-        <v>39.99999432707853</v>
+        <v>39.99999432707852</v>
       </c>
       <c r="G39" t="n">
         <v>170.0093092851158</v>
       </c>
       <c r="H39" t="n">
-        <v>8.569140498383467</v>
+        <v>8.569140498383451</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>5.063940510990931e-13</v>
+        <v>5.063940513815707e-13</v>
       </c>
       <c r="V39" t="n">
-        <v>1.572664802257926e-05</v>
+        <v>1.572664802745939e-05</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002676300000004517</v>
+        <v>0.001698100000005809</v>
       </c>
       <c r="Y39" t="n">
         <v>8</v>
@@ -3728,7 +3728,7 @@
         <v>20.52521663920943</v>
       </c>
       <c r="P40" t="n">
-        <v>45.95999675234544</v>
+        <v>45.95999675234545</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.759430506313124e-11</v>
+        <v>1.759430506423475e-11</v>
       </c>
       <c r="V40" t="n">
-        <v>5.165794318455933e-05</v>
+        <v>5.165794318430166e-05</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.004776800000001913</v>
+        <v>0.001974900000000446</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3780,7 +3780,7 @@
         <v>7.823479679366239e-07</v>
       </c>
       <c r="F41" t="n">
-        <v>39.99997806193078</v>
+        <v>39.9999780619308</v>
       </c>
       <c r="G41" t="n">
         <v>98.44006991130706</v>
@@ -3810,7 +3810,7 @@
         <v>24.59356374587669</v>
       </c>
       <c r="P41" t="n">
-        <v>38.67753768299393</v>
+        <v>38.67753768299394</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.269215057650314e-13</v>
+        <v>1.269215057415164e-13</v>
       </c>
       <c r="V41" t="n">
-        <v>3.994153781680657e-06</v>
+        <v>3.994153780008817e-06</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.003238400000000752</v>
+        <v>0.002209499999999309</v>
       </c>
       <c r="Y41" t="n">
         <v>11</v>
@@ -3865,10 +3865,10 @@
         <v>40.00001825578237</v>
       </c>
       <c r="G42" t="n">
-        <v>73.38312080831896</v>
+        <v>73.38312080831898</v>
       </c>
       <c r="H42" t="n">
-        <v>3.664412846442648</v>
+        <v>3.664412846442649</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3907,10 +3907,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>6.048511014207812e-13</v>
+        <v>6.048511016044316e-13</v>
       </c>
       <c r="V42" t="n">
-        <v>3.06981778287151e-05</v>
+        <v>3.069817782830753e-05</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.00358359999999891</v>
+        <v>0.001691699999994967</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3944,13 +3944,13 @@
         <v>359.9999990538136</v>
       </c>
       <c r="F43" t="n">
-        <v>40.00000202140298</v>
+        <v>40.00000202140297</v>
       </c>
       <c r="G43" t="n">
-        <v>45.16600088814626</v>
+        <v>45.16600088814613</v>
       </c>
       <c r="H43" t="n">
-        <v>3.55317066975012</v>
+        <v>3.553170669750127</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.354798614070371e-13</v>
+        <v>1.354798613493489e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>2.245301441606128e-05</v>
+        <v>2.245301442461338e-05</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.002311500000004685</v>
+        <v>0.001620799999997757</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4026,13 +4026,13 @@
         <v>1.44040546814789e-05</v>
       </c>
       <c r="F44" t="n">
-        <v>39.99957269140693</v>
+        <v>39.99957269140694</v>
       </c>
       <c r="G44" t="n">
-        <v>67.41747114952442</v>
+        <v>67.41747114952439</v>
       </c>
       <c r="H44" t="n">
-        <v>14.40830771878923</v>
+        <v>14.40830771878925</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         <v>21.26722329939584</v>
       </c>
       <c r="P44" t="n">
-        <v>47.23988615183809</v>
+        <v>47.23988615183812</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>4.321251262977062e-11</v>
+        <v>4.321251262616544e-11</v>
       </c>
       <c r="V44" t="n">
-        <v>7.921522483756981e-05</v>
+        <v>7.92152248335425e-05</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002869800000013356</v>
+        <v>0.001930700000002616</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4111,7 +4111,7 @@
         <v>40.00012271643333</v>
       </c>
       <c r="G45" t="n">
-        <v>20.70945538460092</v>
+        <v>20.70945538460091</v>
       </c>
       <c r="H45" t="n">
         <v>10.30916350665426</v>
@@ -4153,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>2.523254700052327e-11</v>
+        <v>2.523254699903326e-11</v>
       </c>
       <c r="V45" t="n">
-        <v>0.0001193002251483318</v>
+        <v>0.0001193002251490424</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.002124799999990046</v>
+        <v>0.002116300000004401</v>
       </c>
       <c r="Y45" t="n">
         <v>7</v>
@@ -4193,10 +4193,10 @@
         <v>40.00000103050338</v>
       </c>
       <c r="G46" t="n">
-        <v>150.2712832721845</v>
+        <v>150.2712832721844</v>
       </c>
       <c r="H46" t="n">
-        <v>4.257524893756704</v>
+        <v>4.257524893756699</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4235,10 +4235,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>3.821871595057847e-13</v>
+        <v>3.821871594658846e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>2.672044942522824e-05</v>
+        <v>2.67204494297785e-05</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002398500000012405</v>
+        <v>0.001595000000001789</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4272,7 +4272,7 @@
         <v>359.9999994032815</v>
       </c>
       <c r="F47" t="n">
-        <v>39.99998830848048</v>
+        <v>39.9999883084805</v>
       </c>
       <c r="G47" t="n">
         <v>178.0220601918214</v>
@@ -4302,7 +4302,7 @@
         <v>3.467189639780424</v>
       </c>
       <c r="P47" t="n">
-        <v>25.92452113144003</v>
+        <v>25.92452113144004</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -4317,10 +4317,10 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>8.555195160707651e-14</v>
+        <v>8.555195156229673e-14</v>
       </c>
       <c r="V47" t="n">
-        <v>7.294337981288784e-06</v>
+        <v>7.294337981973988e-06</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.002428200000011316</v>
+        <v>0.001597500000002583</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4351,16 +4351,16 @@
         <v>10.61800447263276</v>
       </c>
       <c r="E48" t="n">
-        <v>1.481620292871076e-05</v>
+        <v>1.481620291598854e-05</v>
       </c>
       <c r="F48" t="n">
-        <v>39.99967927008352</v>
+        <v>39.99967927008353</v>
       </c>
       <c r="G48" t="n">
         <v>141.0904806414066</v>
       </c>
       <c r="H48" t="n">
-        <v>10.61796520234185</v>
+        <v>10.61796520234186</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4399,10 +4399,10 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>4.597766713582435e-11</v>
+        <v>4.597766713631341e-11</v>
       </c>
       <c r="V48" t="n">
-        <v>5.214465488626294e-05</v>
+        <v>5.214465488522199e-05</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.003264500000000226</v>
+        <v>0.001756100000001481</v>
       </c>
       <c r="Y48" t="n">
         <v>9</v>
@@ -4442,7 +4442,7 @@
         <v>20.4279788458068</v>
       </c>
       <c r="H49" t="n">
-        <v>14.69368008053074</v>
+        <v>14.69368008053075</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4481,10 +4481,10 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>2.683852302068527e-12</v>
+        <v>2.683852302159238e-12</v>
       </c>
       <c r="V49" t="n">
-        <v>2.836979156140967e-05</v>
+        <v>2.836979156080521e-05</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002955199999988167</v>
+        <v>0.001725199999995652</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4518,13 +4518,13 @@
         <v>359.9999966092183</v>
       </c>
       <c r="F50" t="n">
-        <v>39.99989925431344</v>
+        <v>39.99989925431343</v>
       </c>
       <c r="G50" t="n">
         <v>3.148232681310258</v>
       </c>
       <c r="H50" t="n">
-        <v>13.6991141578083</v>
+        <v>13.69911415780831</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4563,10 +4563,10 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>2.033794641854515e-12</v>
+        <v>2.033794641826449e-12</v>
       </c>
       <c r="V50" t="n">
-        <v>4.929742914185034e-05</v>
+        <v>4.92974291424987e-05</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.002386400000006006</v>
+        <v>0.001421600000000467</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4603,10 +4603,10 @@
         <v>39.99928946685392</v>
       </c>
       <c r="G51" t="n">
-        <v>54.17814450998302</v>
+        <v>54.17814450998296</v>
       </c>
       <c r="H51" t="n">
-        <v>5.964054612019519</v>
+        <v>5.964054612019525</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4630,7 +4630,7 @@
         <v>9.522603070451073</v>
       </c>
       <c r="P51" t="n">
-        <v>42.15244758634717</v>
+        <v>42.15244758634718</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -4645,10 +4645,10 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>3.426037656005003e-10</v>
+        <v>3.426037656060878e-10</v>
       </c>
       <c r="V51" t="n">
-        <v>0.0004781301554857772</v>
+        <v>0.0004781301554815607</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.004354199999994535</v>
+        <v>0.001446400000006065</v>
       </c>
       <c r="Y51" t="n">
         <v>7</v>
@@ -4685,7 +4685,7 @@
         <v>39.99966644587123</v>
       </c>
       <c r="G52" t="n">
-        <v>89.03059316754573</v>
+        <v>89.03059316754577</v>
       </c>
       <c r="H52" t="n">
         <v>5.736863978722385</v>
@@ -4727,10 +4727,10 @@
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>6.104686371447463e-11</v>
+        <v>6.104686371122455e-11</v>
       </c>
       <c r="V52" t="n">
-        <v>0.0001469575001039163</v>
+        <v>0.0001469575001053373</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002468800000002602</v>
+        <v>0.002355100000002608</v>
       </c>
       <c r="Y52" t="n">
         <v>8</v>
@@ -4764,13 +4764,13 @@
         <v>359.9999975710484</v>
       </c>
       <c r="F53" t="n">
-        <v>40.00001737420602</v>
+        <v>40.00001737420603</v>
       </c>
       <c r="G53" t="n">
-        <v>121.6309094440032</v>
+        <v>121.6309094440031</v>
       </c>
       <c r="H53" t="n">
-        <v>3.536530513231025</v>
+        <v>3.536530513231022</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4794,7 +4794,7 @@
         <v>7.748478651263748</v>
       </c>
       <c r="P53" t="n">
-        <v>35.48196353864434</v>
+        <v>35.48196353864436</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -4809,10 +4809,10 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>9.537109385139283e-13</v>
+        <v>9.537109387614699e-13</v>
       </c>
       <c r="V53" t="n">
-        <v>3.369663123779401e-05</v>
+        <v>3.369663124452568e-05</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.004135500000003844</v>
+        <v>0.001679800000005116</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4849,10 +4849,10 @@
         <v>39.99999665161877</v>
       </c>
       <c r="G54" t="n">
-        <v>148.1595698436983</v>
+        <v>148.1595698436984</v>
       </c>
       <c r="H54" t="n">
-        <v>3.313394664054607</v>
+        <v>3.313394664054614</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4876,7 +4876,7 @@
         <v>5.48941398536174</v>
       </c>
       <c r="P54" t="n">
-        <v>34.16255080386241</v>
+        <v>34.16255080386239</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
@@ -4891,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>1.547789936388256e-13</v>
+        <v>1.547789935769679e-13</v>
       </c>
       <c r="V54" t="n">
-        <v>2.478102447766423e-05</v>
+        <v>2.478102446876765e-05</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002821799999992436</v>
+        <v>0.001625900000000513</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4928,13 +4928,13 @@
         <v>359.9999860074167</v>
       </c>
       <c r="F55" t="n">
-        <v>40.00023247943205</v>
+        <v>40.00023247943204</v>
       </c>
       <c r="G55" t="n">
         <v>152.3985306343218</v>
       </c>
       <c r="H55" t="n">
-        <v>9.733939893915137</v>
+        <v>9.733939893915139</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4958,7 +4958,7 @@
         <v>13.68505467831447</v>
       </c>
       <c r="P55" t="n">
-        <v>27.82235863487177</v>
+        <v>27.82235863487175</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
@@ -4973,10 +4973,10 @@
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>3.885653130379107e-11</v>
+        <v>3.885653130005065e-11</v>
       </c>
       <c r="V55" t="n">
-        <v>5.43269242315423e-05</v>
+        <v>5.432692423023478e-05</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.005402899999992883</v>
+        <v>0.001572899999999322</v>
       </c>
       <c r="Y55" t="n">
         <v>8</v>
@@ -5013,10 +5013,10 @@
         <v>39.99991759766785</v>
       </c>
       <c r="G56" t="n">
-        <v>75.63322759635361</v>
+        <v>75.63322759635366</v>
       </c>
       <c r="H56" t="n">
-        <v>7.358830332078657</v>
+        <v>7.35883033207865</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5037,10 +5037,10 @@
         <v>40.75218031113259</v>
       </c>
       <c r="O56" t="n">
-        <v>13.80603978827704</v>
+        <v>13.80603978827702</v>
       </c>
       <c r="P56" t="n">
-        <v>40.75203632296729</v>
+        <v>40.75203632296728</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -5055,10 +5055,10 @@
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>2.845913084583089e-12</v>
+        <v>2.845913084737441e-12</v>
       </c>
       <c r="V56" t="n">
-        <v>2.895087325761935e-05</v>
+        <v>2.895087326914095e-05</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002689599999996517</v>
+        <v>0.001924400000000048</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5095,10 +5095,10 @@
         <v>39.99979409227888</v>
       </c>
       <c r="G57" t="n">
-        <v>16.75977707764472</v>
+        <v>16.7597770776447</v>
       </c>
       <c r="H57" t="n">
-        <v>14.65922237913704</v>
+        <v>14.65922237913705</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -5119,10 +5119,10 @@
         <v>54.58643989705576</v>
       </c>
       <c r="O57" t="n">
-        <v>6.567377772663073</v>
+        <v>6.56737777266306</v>
       </c>
       <c r="P57" t="n">
-        <v>54.58545535271173</v>
+        <v>54.58545535271175</v>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
@@ -5137,10 +5137,10 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>6.090484667292011e-11</v>
+        <v>6.090484667048666e-11</v>
       </c>
       <c r="V57" t="n">
-        <v>0.000151424346043213</v>
+        <v>0.0001514243460474611</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.002591899999998759</v>
+        <v>0.001418600000000936</v>
       </c>
       <c r="Y57" t="n">
         <v>7</v>
@@ -5174,13 +5174,13 @@
         <v>359.9999995946988</v>
       </c>
       <c r="F58" t="n">
-        <v>39.99999115336249</v>
+        <v>39.9999911533625</v>
       </c>
       <c r="G58" t="n">
-        <v>177.1545189038947</v>
+        <v>177.1545189038948</v>
       </c>
       <c r="H58" t="n">
-        <v>7.000929995792</v>
+        <v>7.000929995792018</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5204,7 +5204,7 @@
         <v>3.13410567755754</v>
       </c>
       <c r="P58" t="n">
-        <v>29.03630038828906</v>
+        <v>29.03630038828905</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -5219,10 +5219,10 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>3.882866755340557e-14</v>
+        <v>3.882866746618497e-14</v>
       </c>
       <c r="V58" t="n">
-        <v>7.237979853479607e-06</v>
+        <v>7.237979845307401e-06</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.002297499999997399</v>
+        <v>0.001573899999996797</v>
       </c>
       <c r="Y58" t="n">
         <v>8</v>
@@ -5259,10 +5259,10 @@
         <v>39.99984885894895</v>
       </c>
       <c r="G59" t="n">
-        <v>15.72167079643026</v>
+        <v>15.72167079643027</v>
       </c>
       <c r="H59" t="n">
-        <v>5.766369132583219</v>
+        <v>5.766369132583212</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5286,7 +5286,7 @@
         <v>3.955395357048425</v>
       </c>
       <c r="P59" t="n">
-        <v>44.14942243062937</v>
+        <v>44.14942243062936</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
@@ -5301,10 +5301,10 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>4.110803797387695e-11</v>
+        <v>4.110803797188344e-11</v>
       </c>
       <c r="V59" t="n">
-        <v>0.0003371259004742215</v>
+        <v>0.0003371259004701618</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.003810700000002498</v>
+        <v>0.001644800000001112</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5338,13 +5338,13 @@
         <v>5.862082839682497e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>39.9998664770854</v>
+        <v>39.99986647708538</v>
       </c>
       <c r="G60" t="n">
-        <v>65.71934088714923</v>
+        <v>65.7193408871492</v>
       </c>
       <c r="H60" t="n">
-        <v>8.414388990415187</v>
+        <v>8.414388990415183</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>14.02410441610833</v>
       </c>
       <c r="P60" t="n">
-        <v>42.81161643432615</v>
+        <v>42.81161643432613</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
@@ -5383,10 +5383,10 @@
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>6.838659295969594e-12</v>
+        <v>6.838659295088161e-12</v>
       </c>
       <c r="V60" t="n">
-        <v>4.33518459728569e-05</v>
+        <v>4.335184597403174e-05</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.00538670000000252</v>
+        <v>0.001926300000000936</v>
       </c>
       <c r="Y60" t="n">
         <v>9</v>
@@ -5426,7 +5426,7 @@
         <v>166.3262358301267</v>
       </c>
       <c r="H61" t="n">
-        <v>4.894425456490432</v>
+        <v>4.894425456490418</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>4.618350067537305</v>
       </c>
       <c r="P61" t="n">
-        <v>31.77996962870387</v>
+        <v>31.77996962870389</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
@@ -5465,10 +5465,10 @@
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>9.119486462477218e-14</v>
+        <v>9.11948647234352e-14</v>
       </c>
       <c r="V61" t="n">
-        <v>1.427628545155775e-05</v>
+        <v>1.427628546116909e-05</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.00286680000000672</v>
+        <v>0.001673100000004979</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5505,10 +5505,10 @@
         <v>40.00022886023665</v>
       </c>
       <c r="G62" t="n">
-        <v>54.1543148751292</v>
+        <v>54.15431487512916</v>
       </c>
       <c r="H62" t="n">
-        <v>5.243679128926551</v>
+        <v>5.243679128926555</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>8.681806522688577</v>
       </c>
       <c r="P62" t="n">
-        <v>41.54475629238001</v>
+        <v>41.54475629238003</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -5547,10 +5547,10 @@
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>6.529499300327678e-11</v>
+        <v>6.529499300317126e-11</v>
       </c>
       <c r="V62" t="n">
-        <v>0.000262070967778126</v>
+        <v>0.000262070967781524</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.003491500000009751</v>
+        <v>0.002048399999999617</v>
       </c>
       <c r="Y62" t="n">
         <v>7</v>
@@ -5584,13 +5584,13 @@
         <v>359.9999970684586</v>
       </c>
       <c r="F63" t="n">
-        <v>40.00001744084963</v>
+        <v>40.00001744084962</v>
       </c>
       <c r="G63" t="n">
         <v>148.4040813180418</v>
       </c>
       <c r="H63" t="n">
-        <v>5.176157577505603</v>
+        <v>5.176157577505605</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5629,10 +5629,10 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>1.393447160849938e-12</v>
+        <v>1.393447160569871e-12</v>
       </c>
       <c r="V63" t="n">
-        <v>3.43340635269709e-05</v>
+        <v>3.433406352574741e-05</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002399900000000343</v>
+        <v>0.001623600000002057</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5669,10 +5669,10 @@
         <v>39.99984405288829</v>
       </c>
       <c r="G64" t="n">
-        <v>6.075700087764147</v>
+        <v>6.075700087764135</v>
       </c>
       <c r="H64" t="n">
-        <v>8.869691795016221</v>
+        <v>8.869691795016239</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5696,7 +5696,7 @@
         <v>2.741610276153606</v>
       </c>
       <c r="P64" t="n">
-        <v>48.02229189773809</v>
+        <v>48.02229189773811</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -5711,10 +5711,10 @@
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>8.872047105715336e-12</v>
+        <v>8.872047106201748e-12</v>
       </c>
       <c r="V64" t="n">
-        <v>0.0001291752313014029</v>
+        <v>0.0001291752313071497</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.003669700000003218</v>
+        <v>0.001381000000002075</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5748,13 +5748,13 @@
         <v>1.120296784021366e-05</v>
       </c>
       <c r="F65" t="n">
-        <v>39.99974568443412</v>
+        <v>39.9997456844341</v>
       </c>
       <c r="G65" t="n">
         <v>99.71022038229087</v>
       </c>
       <c r="H65" t="n">
-        <v>7.754890670877847</v>
+        <v>7.754890670877845</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>37.27781598912134</v>
       </c>
       <c r="O65" t="n">
-        <v>16.1086906921706</v>
+        <v>16.10869069217062</v>
       </c>
       <c r="P65" t="n">
         <v>37.27742759755068</v>
@@ -5793,10 +5793,10 @@
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>2.560317224340512e-11</v>
+        <v>2.560317224463109e-11</v>
       </c>
       <c r="V65" t="n">
-        <v>6.806732771542492e-05</v>
+        <v>6.806732770920982e-05</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002622199999990471</v>
+        <v>0.001902300000004686</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5830,13 +5830,13 @@
         <v>2.362480650895264e-05</v>
       </c>
       <c r="F66" t="n">
-        <v>39.99940928182554</v>
+        <v>39.99940928182556</v>
       </c>
       <c r="G66" t="n">
-        <v>68.23872610698311</v>
+        <v>68.23872610698317</v>
       </c>
       <c r="H66" t="n">
-        <v>9.804836940565805</v>
+        <v>9.804836940565798</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5860,7 +5860,7 @@
         <v>16.16168076890166</v>
       </c>
       <c r="P66" t="n">
-        <v>43.4627485739319</v>
+        <v>43.46274857393188</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -5875,10 +5875,10 @@
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>1.136203618477173e-10</v>
+        <v>1.136203618370239e-10</v>
       </c>
       <c r="V66" t="n">
-        <v>0.0001548823021906123</v>
+        <v>0.00015488230219439</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.005077199999988125</v>
+        <v>0.001957900000000734</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5912,13 +5912,13 @@
         <v>359.9999992973458</v>
       </c>
       <c r="F67" t="n">
-        <v>39.99999901220919</v>
+        <v>39.9999990122092</v>
       </c>
       <c r="G67" t="n">
-        <v>39.35591441200607</v>
+        <v>39.35591441200611</v>
       </c>
       <c r="H67" t="n">
-        <v>3.376850641112726</v>
+        <v>3.376850641112725</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5942,7 +5942,7 @@
         <v>5.274022220016706</v>
       </c>
       <c r="P67" t="n">
-        <v>40.68916021004917</v>
+        <v>40.68916021004919</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -5957,10 +5957,10 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>7.417664628643794e-14</v>
+        <v>7.417664636539093e-14</v>
       </c>
       <c r="V67" t="n">
-        <v>1.931320902656284e-05</v>
+        <v>1.931320902539507e-05</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.003910500000003481</v>
+        <v>0.001602300000001833</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -5994,13 +5994,13 @@
         <v>359.9999994090452</v>
       </c>
       <c r="F68" t="n">
-        <v>39.9999989213235</v>
+        <v>39.99999892132351</v>
       </c>
       <c r="G68" t="n">
         <v>27.77167861180239</v>
       </c>
       <c r="H68" t="n">
-        <v>4.60441240574859</v>
+        <v>4.604412405748593</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6024,7 +6024,7 @@
         <v>5.062673317289311</v>
       </c>
       <c r="P68" t="n">
-        <v>42.43804107896128</v>
+        <v>42.4380410789613</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -6039,10 +6039,10 @@
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>5.201257410041185e-14</v>
+        <v>5.201257407669949e-14</v>
       </c>
       <c r="V68" t="n">
-        <v>1.267593945881362e-05</v>
+        <v>1.267593946081846e-05</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.003207000000003291</v>
+        <v>0.00167679999999848</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6076,13 +6076,13 @@
         <v>1.387476752132848e-06</v>
       </c>
       <c r="F69" t="n">
-        <v>39.99996025664754</v>
+        <v>39.99996025664753</v>
       </c>
       <c r="G69" t="n">
         <v>98.25329157088942</v>
       </c>
       <c r="H69" t="n">
-        <v>13.3062601244661</v>
+        <v>13.30626012446609</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6106,7 +6106,7 @@
         <v>25.81153253188359</v>
       </c>
       <c r="P69" t="n">
-        <v>38.98051049958388</v>
+        <v>38.98051049958387</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -6121,10 +6121,10 @@
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>3.985968415890915e-13</v>
+        <v>3.985968417207791e-13</v>
       </c>
       <c r="V69" t="n">
-        <v>6.997352114036973e-06</v>
+        <v>6.997352115342007e-06</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.005930899999995631</v>
+        <v>0.002269100000006574</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6161,10 +6161,10 @@
         <v>40.00000247979136</v>
       </c>
       <c r="G70" t="n">
-        <v>46.68659596521119</v>
+        <v>46.68659596521127</v>
       </c>
       <c r="H70" t="n">
-        <v>3.520353630061816</v>
+        <v>3.520353630061811</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>6.014680536781656</v>
       </c>
       <c r="P70" t="n">
-        <v>40.50452106733949</v>
+        <v>40.50452106733947</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -6203,10 +6203,10 @@
         <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>1.472670033921764e-13</v>
+        <v>1.472670033439836e-13</v>
       </c>
       <c r="V70" t="n">
-        <v>2.322353913882032e-05</v>
+        <v>2.32235391329502e-05</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.00364689999999257</v>
+        <v>0.001555400000000873</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6243,10 +6243,10 @@
         <v>39.99997174673842</v>
       </c>
       <c r="G71" t="n">
-        <v>53.32487247071197</v>
+        <v>53.32487247071196</v>
       </c>
       <c r="H71" t="n">
-        <v>12.70879281787567</v>
+        <v>12.70879281787568</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -6285,10 +6285,10 @@
         <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>2.265557198162043e-13</v>
+        <v>2.265557200516949e-13</v>
       </c>
       <c r="V71" t="n">
-        <v>6.440196642844792e-06</v>
+        <v>6.440196641540065e-06</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.008000199999997903</v>
+        <v>0.002046200000002329</v>
       </c>
       <c r="Y71" t="n">
         <v>10</v>
@@ -6349,7 +6349,7 @@
         <v>22.16891449794234</v>
       </c>
       <c r="O72" t="n">
-        <v>12.56035885836785</v>
+        <v>12.56035885836787</v>
       </c>
       <c r="P72" t="n">
         <v>22.16893187677584</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>1.31453665932455e-13</v>
+        <v>1.314536660778977e-13</v>
       </c>
       <c r="V72" t="n">
-        <v>2.816427348577141e-06</v>
+        <v>2.816427354756055e-06</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.00584779999999796</v>
+        <v>0.002436699999996961</v>
       </c>
       <c r="Y72" t="n">
         <v>9</v>
@@ -6404,13 +6404,13 @@
         <v>359.9999958296888</v>
       </c>
       <c r="F73" t="n">
-        <v>40.00003571547259</v>
+        <v>40.00003571547256</v>
       </c>
       <c r="G73" t="n">
-        <v>33.40328378613726</v>
+        <v>33.40328378613725</v>
       </c>
       <c r="H73" t="n">
-        <v>7.639284741555373</v>
+        <v>7.639284741555365</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6434,7 +6434,7 @@
         <v>7.859913161873981</v>
       </c>
       <c r="P73" t="n">
-        <v>45.46366636773737</v>
+        <v>45.46366636773733</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -6449,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>2.4189464257464e-12</v>
+        <v>2.418946424356174e-12</v>
       </c>
       <c r="V73" t="n">
-        <v>4.34087183760807e-05</v>
+        <v>4.340871837287285e-05</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002473299999991241</v>
+        <v>0.001502100000003281</v>
       </c>
       <c r="Y73" t="n">
         <v>7</v>
@@ -6489,10 +6489,10 @@
         <v>40.00009513691083</v>
       </c>
       <c r="G74" t="n">
-        <v>19.21267023402488</v>
+        <v>19.21267023402487</v>
       </c>
       <c r="H74" t="n">
-        <v>11.21237523053842</v>
+        <v>11.21237523053843</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -6516,7 +6516,7 @@
         <v>6.377073298313284</v>
       </c>
       <c r="P74" t="n">
-        <v>50.40105589706383</v>
+        <v>50.40105589706384</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -6531,10 +6531,10 @@
         <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>1.272606611551468e-11</v>
+        <v>1.272606611737983e-11</v>
       </c>
       <c r="V74" t="n">
-        <v>7.943064598538572e-05</v>
+        <v>7.943064598815052e-05</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.004396599999992645</v>
+        <v>0.001393900000003612</v>
       </c>
       <c r="Y74" t="n">
         <v>7</v>
@@ -6598,7 +6598,7 @@
         <v>19.35755510092642</v>
       </c>
       <c r="P75" t="n">
-        <v>34.40678872454652</v>
+        <v>34.40678872454651</v>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
@@ -6613,10 +6613,10 @@
         <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>5.382193607764024e-13</v>
+        <v>5.382193603300878e-13</v>
       </c>
       <c r="V75" t="n">
-        <v>7.870282166235258e-06</v>
+        <v>7.870282168344717e-06</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.00666739999999777</v>
+        <v>0.002039599999996256</v>
       </c>
       <c r="Y75" t="n">
         <v>10</v>
@@ -6695,10 +6695,10 @@
         <v>0</v>
       </c>
       <c r="U76" t="n">
-        <v>9.51087838844895e-13</v>
+        <v>9.510878389367971e-13</v>
       </c>
       <c r="V76" t="n">
-        <v>1.522137011638976e-05</v>
+        <v>1.522137011674747e-05</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.007065900000000624</v>
+        <v>0.001917900000002248</v>
       </c>
       <c r="Y76" t="n">
         <v>9</v>
@@ -6735,7 +6735,7 @@
         <v>40.0000302186335</v>
       </c>
       <c r="G77" t="n">
-        <v>102.408475466075</v>
+        <v>102.4084754660749</v>
       </c>
       <c r="H77" t="n">
         <v>3.791574148138705</v>
@@ -6762,7 +6762,7 @@
         <v>8.766357823457042</v>
       </c>
       <c r="P77" t="n">
-        <v>36.83630882581321</v>
+        <v>36.83630882581323</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
@@ -6777,10 +6777,10 @@
         <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>1.285438083164919e-12</v>
+        <v>1.285438083454058e-12</v>
       </c>
       <c r="V77" t="n">
-        <v>2.598318170556721e-05</v>
+        <v>2.598318170834181e-05</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.00383250000000146</v>
+        <v>0.001651999999999987</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6817,10 +6817,10 @@
         <v>39.9999557091756</v>
       </c>
       <c r="G78" t="n">
-        <v>55.94939953808478</v>
+        <v>55.94939953808473</v>
       </c>
       <c r="H78" t="n">
-        <v>12.82781669040133</v>
+        <v>12.82781669040134</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6844,7 +6844,7 @@
         <v>16.84050780362164</v>
       </c>
       <c r="P78" t="n">
-        <v>48.06395603417499</v>
+        <v>48.06395603417501</v>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
@@ -6859,10 +6859,10 @@
         <v>0</v>
       </c>
       <c r="U78" t="n">
-        <v>5.408604163116777e-13</v>
+        <v>5.408604161761127e-13</v>
       </c>
       <c r="V78" t="n">
-        <v>9.762903554870222e-06</v>
+        <v>9.762903550879213e-06</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.005362099999999259</v>
+        <v>0.002035800000001586</v>
       </c>
       <c r="Y78" t="n">
         <v>10</v>
@@ -6896,13 +6896,13 @@
         <v>359.9999907384744</v>
       </c>
       <c r="F79" t="n">
-        <v>40.00008142421625</v>
+        <v>40.00008142421624</v>
       </c>
       <c r="G79" t="n">
         <v>165.4392805453577</v>
       </c>
       <c r="H79" t="n">
-        <v>10.70625382610421</v>
+        <v>10.7062538261042</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6941,10 +6941,10 @@
         <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>1.515746802395243e-11</v>
+        <v>1.515746802521602e-11</v>
       </c>
       <c r="V79" t="n">
-        <v>4.632511019145096e-05</v>
+        <v>4.632511019393969e-05</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.003899899999993295</v>
+        <v>0.00177569999999605</v>
       </c>
       <c r="Y79" t="n">
         <v>8</v>
@@ -6981,7 +6981,7 @@
         <v>39.99990425749419</v>
       </c>
       <c r="G80" t="n">
-        <v>8.672434202427523</v>
+        <v>8.67243420242751</v>
       </c>
       <c r="H80" t="n">
         <v>11.17202810054727</v>
@@ -7008,7 +7008,7 @@
         <v>3.606929374493214</v>
       </c>
       <c r="P80" t="n">
-        <v>50.73719759273452</v>
+        <v>50.73719759273454</v>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
@@ -7023,10 +7023,10 @@
         <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>1.576381884006149e-11</v>
+        <v>1.576381883984814e-11</v>
       </c>
       <c r="V80" t="n">
-        <v>0.0001272735168804042</v>
+        <v>0.0001272735168826945</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.005879000000007295</v>
+        <v>0.001449900000004334</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7060,13 +7060,13 @@
         <v>2.511450000377168e-05</v>
       </c>
       <c r="F81" t="n">
-        <v>39.99939344579808</v>
+        <v>39.99939344579809</v>
       </c>
       <c r="G81" t="n">
         <v>90.12174640772098</v>
       </c>
       <c r="H81" t="n">
-        <v>8.616556174980937</v>
+        <v>8.616556174980941</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7090,7 +7090,7 @@
         <v>17.12318735962595</v>
       </c>
       <c r="P81" t="n">
-        <v>39.0939404144764</v>
+        <v>39.09394041447641</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
@@ -7105,10 +7105,10 @@
         <v>0</v>
       </c>
       <c r="U81" t="n">
-        <v>1.294161772796378e-10</v>
+        <v>1.294161772783958e-10</v>
       </c>
       <c r="V81" t="n">
-        <v>0.0001557580338362061</v>
+        <v>0.0001557580338348724</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.03614509999999882</v>
+        <v>0.00186639999999727</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7145,7 +7145,7 @@
         <v>39.99971170870241</v>
       </c>
       <c r="G82" t="n">
-        <v>93.94518649634439</v>
+        <v>93.94518649634435</v>
       </c>
       <c r="H82" t="n">
         <v>11.39274562265922</v>
@@ -7172,7 +7172,7 @@
         <v>22.11551883074169</v>
       </c>
       <c r="P82" t="n">
-        <v>39.33687975491981</v>
+        <v>39.33687975491983</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
@@ -7187,10 +7187,10 @@
         <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>2.337776205541003e-11</v>
+        <v>2.337776205767417e-11</v>
       </c>
       <c r="V82" t="n">
-        <v>5.693174032614712e-05</v>
+        <v>5.69317403232753e-05</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.004385099999993258</v>
+        <v>0.002589000000000397</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7230,7 +7230,7 @@
         <v>63.97553431715559</v>
       </c>
       <c r="H83" t="n">
-        <v>7.090170627499203</v>
+        <v>7.090170627499205</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7254,7 +7254,7 @@
         <v>12.10178996365406</v>
       </c>
       <c r="P83" t="n">
-        <v>42.05114650405128</v>
+        <v>42.05114650405129</v>
       </c>
       <c r="Q83" t="n">
         <v>0</v>
@@ -7269,10 +7269,10 @@
         <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>2.578697034715689e-13</v>
+        <v>2.578697035254993e-13</v>
       </c>
       <c r="V83" t="n">
-        <v>9.995335843253928e-06</v>
+        <v>9.995335842345966e-06</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.01045410000000402</v>
+        <v>0.00181129999999996</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -7312,7 +7312,7 @@
         <v>49.5408322095651</v>
       </c>
       <c r="H84" t="n">
-        <v>10.67065097312855</v>
+        <v>10.67065097312856</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>13.43287145273955</v>
       </c>
       <c r="P84" t="n">
-        <v>46.97776422471182</v>
+        <v>46.97776422471183</v>
       </c>
       <c r="Q84" t="n">
         <v>0</v>
@@ -7351,10 +7351,10 @@
         <v>0</v>
       </c>
       <c r="U84" t="n">
-        <v>8.340578894867753e-12</v>
+        <v>8.34057889232215e-12</v>
       </c>
       <c r="V84" t="n">
-        <v>4.486763375084796e-05</v>
+        <v>4.486763374909526e-05</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.004492900000002464</v>
+        <v>0.001804799999995055</v>
       </c>
       <c r="Y84" t="n">
         <v>9</v>
@@ -7388,13 +7388,13 @@
         <v>5.873369266969607e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>39.99986033879232</v>
+        <v>39.99986033879235</v>
       </c>
       <c r="G85" t="n">
-        <v>46.26780636519946</v>
+        <v>46.26780636519948</v>
       </c>
       <c r="H85" t="n">
-        <v>11.20533862030289</v>
+        <v>11.2053386203029</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -7415,10 +7415,10 @@
         <v>47.93179806456282</v>
       </c>
       <c r="O85" t="n">
-        <v>13.12798827717037</v>
+        <v>13.12798827717038</v>
       </c>
       <c r="P85" t="n">
-        <v>47.93152832304277</v>
+        <v>47.93152832304281</v>
       </c>
       <c r="Q85" t="n">
         <v>0</v>
@@ -7433,10 +7433,10 @@
         <v>0</v>
       </c>
       <c r="U85" t="n">
-        <v>6.795973169103195e-12</v>
+        <v>6.795973167088639e-12</v>
       </c>
       <c r="V85" t="n">
-        <v>4.009325715944773e-05</v>
+        <v>4.009325714983593e-05</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.003058300000006398</v>
+        <v>0.002540299999999718</v>
       </c>
       <c r="Y85" t="n">
         <v>9</v>
@@ -7470,13 +7470,13 @@
         <v>359.9999905896057</v>
       </c>
       <c r="F86" t="n">
-        <v>39.9998311184225</v>
+        <v>39.99983111842248</v>
       </c>
       <c r="G86" t="n">
         <v>8.287054334115817</v>
       </c>
       <c r="H86" t="n">
-        <v>7.443381013759685</v>
+        <v>7.44338101375969</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7515,10 +7515,10 @@
         <v>0</v>
       </c>
       <c r="U86" t="n">
-        <v>1.463457360675539e-11</v>
+        <v>1.463457360690266e-11</v>
       </c>
       <c r="V86" t="n">
-        <v>0.0001827209385612987</v>
+        <v>0.0001827209385627903</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.003265300000009574</v>
+        <v>0.001522500000000093</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7558,7 +7558,7 @@
         <v>111.6673563138905</v>
       </c>
       <c r="H87" t="n">
-        <v>9.107428161010301</v>
+        <v>9.107428161010303</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7579,10 +7579,10 @@
         <v>35.21970397644842</v>
       </c>
       <c r="O87" t="n">
-        <v>18.76060995912141</v>
+        <v>18.76060995912142</v>
       </c>
       <c r="P87" t="n">
-        <v>35.21966351942561</v>
+        <v>35.2196635194256</v>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
@@ -7597,10 +7597,10 @@
         <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>3.168057830844344e-13</v>
+        <v>3.168057824975849e-13</v>
       </c>
       <c r="V87" t="n">
-        <v>6.332969787995568e-06</v>
+        <v>6.3329697878442e-06</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.007194299999994769</v>
+        <v>0.002067699999997785</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -7637,10 +7637,10 @@
         <v>40.0000077685276</v>
       </c>
       <c r="G88" t="n">
-        <v>36.46912838016276</v>
+        <v>36.4691283801627</v>
       </c>
       <c r="H88" t="n">
-        <v>5.485141745912365</v>
+        <v>5.485141745912376</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7661,10 +7661,10 @@
         <v>42.97845363301155</v>
       </c>
       <c r="O88" t="n">
-        <v>6.791947957944508</v>
+        <v>6.791947957944521</v>
       </c>
       <c r="P88" t="n">
-        <v>42.97849381140352</v>
+        <v>42.97849381140354</v>
       </c>
       <c r="Q88" t="n">
         <v>0</v>
@@ -7679,10 +7679,10 @@
         <v>0</v>
       </c>
       <c r="U88" t="n">
-        <v>1.769625250942887e-13</v>
+        <v>1.769625251035028e-13</v>
       </c>
       <c r="V88" t="n">
-        <v>1.600325846523802e-05</v>
+        <v>1.600325847206795e-05</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003135299999996732</v>
+        <v>0.001589299999999128</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,13 +7716,13 @@
         <v>4.282986102822487e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>39.99988003120571</v>
+        <v>39.99988003120575</v>
       </c>
       <c r="G89" t="n">
         <v>118.1276515169703</v>
       </c>
       <c r="H89" t="n">
-        <v>14.45876270686849</v>
+        <v>14.4587627068685</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7746,7 +7746,7 @@
         <v>29.42434542045969</v>
       </c>
       <c r="P89" t="n">
-        <v>33.52888714055677</v>
+        <v>33.52888714055681</v>
       </c>
       <c r="Q89" t="n">
         <v>0</v>
@@ -7761,10 +7761,10 @@
         <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>3.742362746340963e-12</v>
+        <v>3.742362742370268e-12</v>
       </c>
       <c r="V89" t="n">
-        <v>1.943379671637675e-05</v>
+        <v>1.943379671037936e-05</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.005367299999988973</v>
+        <v>0.002308199999994542</v>
       </c>
       <c r="Y89" t="n">
         <v>11</v>
@@ -7798,13 +7798,13 @@
         <v>9.862674247835982e-07</v>
       </c>
       <c r="F90" t="n">
-        <v>39.99997685758037</v>
+        <v>39.99997685758038</v>
       </c>
       <c r="G90" t="n">
         <v>116.5592453822243</v>
       </c>
       <c r="H90" t="n">
-        <v>9.085790285801989</v>
+        <v>9.085790285801991</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7828,7 +7828,7 @@
         <v>18.57224395072821</v>
       </c>
       <c r="P90" t="n">
-        <v>34.29462332625653</v>
+        <v>34.29462332625654</v>
       </c>
       <c r="Q90" t="n">
         <v>0</v>
@@ -7843,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>2.016348105114376e-13</v>
+        <v>2.016348103532636e-13</v>
       </c>
       <c r="V90" t="n">
-        <v>4.817663190425518e-06</v>
+        <v>4.817663189591433e-06</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.006935900000001993</v>
+        <v>0.001955099999996435</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7880,13 +7880,13 @@
         <v>3.096796511782253e-05</v>
       </c>
       <c r="F91" t="n">
-        <v>39.99939251481508</v>
+        <v>39.99939251481509</v>
       </c>
       <c r="G91" t="n">
-        <v>89.94858587319989</v>
+        <v>89.9485858731999</v>
       </c>
       <c r="H91" t="n">
-        <v>6.071009581688421</v>
+        <v>6.071009581688424</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7925,10 +7925,10 @@
         <v>0</v>
       </c>
       <c r="U91" t="n">
-        <v>1.877962206178754e-10</v>
+        <v>1.877962206150732e-10</v>
       </c>
       <c r="V91" t="n">
-        <v>0.0002424144388616351</v>
+        <v>0.000242414438860229</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.003006900000002588</v>
+        <v>0.001617000000003088</v>
       </c>
       <c r="Y91" t="n">
         <v>8</v>
@@ -7962,13 +7962,13 @@
         <v>359.9999993738908</v>
       </c>
       <c r="F92" t="n">
-        <v>39.99999954258951</v>
+        <v>39.9999995425895</v>
       </c>
       <c r="G92" t="n">
-        <v>27.54967441079624</v>
+        <v>27.54967441079621</v>
       </c>
       <c r="H92" t="n">
-        <v>4.892246354555275</v>
+        <v>4.892246354555277</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>5.213184645027241</v>
       </c>
       <c r="P92" t="n">
-        <v>42.76555454418032</v>
+        <v>42.7655545441803</v>
       </c>
       <c r="Q92" t="n">
         <v>0</v>
@@ -8007,10 +8007,10 @@
         <v>0</v>
       </c>
       <c r="U92" t="n">
-        <v>5.829370678751448e-14</v>
+        <v>5.829370670662089e-14</v>
       </c>
       <c r="V92" t="n">
-        <v>1.244867362795466e-05</v>
+        <v>1.244867362901912e-05</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002445600000001491</v>
+        <v>0.001696099999996648</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8047,10 +8047,10 @@
         <v>40.0001431412763</v>
       </c>
       <c r="G93" t="n">
-        <v>36.17963127079898</v>
+        <v>36.17963127079899</v>
       </c>
       <c r="H93" t="n">
-        <v>6.948538710436823</v>
+        <v>6.948538710436816</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8074,7 +8074,7 @@
         <v>7.863452947944189</v>
       </c>
       <c r="P93" t="n">
-        <v>44.53291085194563</v>
+        <v>44.53291085194562</v>
       </c>
       <c r="Q93" t="n">
         <v>0</v>
@@ -8089,10 +8089,10 @@
         <v>0</v>
       </c>
       <c r="U93" t="n">
-        <v>2.813815998420151e-11</v>
+        <v>2.813815998424713e-11</v>
       </c>
       <c r="V93" t="n">
-        <v>0.0001528363978463166</v>
+        <v>0.0001528363978434941</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.003874299999992559</v>
+        <v>0.00144809999999751</v>
       </c>
       <c r="Y93" t="n">
         <v>7</v>
@@ -8126,7 +8126,7 @@
         <v>359.9999637185529</v>
       </c>
       <c r="F94" t="n">
-        <v>40.00063064298006</v>
+        <v>40.00063064298005</v>
       </c>
       <c r="G94" t="n">
         <v>159.457327935126</v>
@@ -8156,7 +8156,7 @@
         <v>15.35108016740077</v>
       </c>
       <c r="P94" t="n">
-        <v>24.24477627832843</v>
+        <v>24.24477627832842</v>
       </c>
       <c r="Q94" t="n">
         <v>0</v>
@@ -8171,10 +8171,10 @@
         <v>0</v>
       </c>
       <c r="U94" t="n">
-        <v>2.721804458183709e-10</v>
+        <v>2.721804458103254e-10</v>
       </c>
       <c r="V94" t="n">
-        <v>0.0001062805177442721</v>
+        <v>0.0001062805177442521</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.004163199999993594</v>
+        <v>0.001616200000000845</v>
       </c>
       <c r="Y94" t="n">
         <v>8</v>
@@ -8208,10 +8208,10 @@
         <v>8.181192733224854e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>39.9997875122107</v>
+        <v>39.99978751221068</v>
       </c>
       <c r="G95" t="n">
-        <v>109.1441024411214</v>
+        <v>109.1441024411213</v>
       </c>
       <c r="H95" t="n">
         <v>10.8900599833602</v>
@@ -8238,7 +8238,7 @@
         <v>22.21314288159155</v>
       </c>
       <c r="P95" t="n">
-        <v>35.7511234266153</v>
+        <v>35.75112342661529</v>
       </c>
       <c r="Q95" t="n">
         <v>0</v>
@@ -8253,10 +8253,10 @@
         <v>0</v>
       </c>
       <c r="U95" t="n">
-        <v>1.391470317534169e-11</v>
+        <v>1.391470317749134e-11</v>
       </c>
       <c r="V95" t="n">
-        <v>4.083442914456888e-05</v>
+        <v>4.083442914503364e-05</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.003415699999990807</v>
+        <v>0.002598400000003664</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8290,13 +8290,13 @@
         <v>1.593286183627079e-06</v>
       </c>
       <c r="F96" t="n">
-        <v>39.99996284139226</v>
+        <v>39.99996284139227</v>
       </c>
       <c r="G96" t="n">
         <v>129.4895156175314</v>
       </c>
       <c r="H96" t="n">
-        <v>10.28664598520447</v>
+        <v>10.28664598520448</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8320,7 +8320,7 @@
         <v>19.90992920211657</v>
       </c>
       <c r="P96" t="n">
-        <v>31.41107720246518</v>
+        <v>31.41107720246519</v>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
@@ -8335,10 +8335,10 @@
         <v>0</v>
       </c>
       <c r="U96" t="n">
-        <v>5.297450683512227e-13</v>
+        <v>5.297450679295137e-13</v>
       </c>
       <c r="V96" t="n">
-        <v>6.664405513411779e-06</v>
+        <v>6.664405512226042e-06</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.003390899999999419</v>
+        <v>0.001983199999997964</v>
       </c>
       <c r="Y96" t="n">
         <v>10</v>
@@ -8372,13 +8372,13 @@
         <v>359.9999988214119</v>
       </c>
       <c r="F97" t="n">
-        <v>40.00001033063617</v>
+        <v>40.00001033063616</v>
       </c>
       <c r="G97" t="n">
-        <v>41.18447696115251</v>
+        <v>41.18447696115249</v>
       </c>
       <c r="H97" t="n">
-        <v>5.288281052382938</v>
+        <v>5.288281052382939</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="U97" t="n">
-        <v>2.213601620025566e-13</v>
+        <v>2.213601620308847e-13</v>
       </c>
       <c r="V97" t="n">
-        <v>1.746655408133383e-05</v>
+        <v>1.746655408260547e-05</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002433400000001029</v>
+        <v>0.00161239999999907</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8454,13 +8454,13 @@
         <v>7.925084814109399e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>39.99980100896803</v>
+        <v>39.99980100896806</v>
       </c>
       <c r="G98" t="n">
-        <v>38.64377338885008</v>
+        <v>38.64377338885009</v>
       </c>
       <c r="H98" t="n">
-        <v>13.91385179683047</v>
+        <v>13.91385179683049</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>12.95226279991576</v>
       </c>
       <c r="P98" t="n">
-        <v>51.74065836544998</v>
+        <v>51.74065836545003</v>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
@@ -8499,10 +8499,10 @@
         <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>1.239928576368857e-11</v>
+        <v>1.239928576045537e-11</v>
       </c>
       <c r="V98" t="n">
-        <v>4.98850866569598e-05</v>
+        <v>4.988508665312349e-05</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002853299999998171</v>
+        <v>0.001809099999995567</v>
       </c>
       <c r="Y98" t="n">
         <v>9</v>
@@ -8581,10 +8581,10 @@
         <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>1.169119581970455e-11</v>
+        <v>1.169119582406338e-11</v>
       </c>
       <c r="V99" t="n">
-        <v>2.568506204093753e-05</v>
+        <v>2.56850620397244e-05</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.004734399999989591</v>
+        <v>0.002143799999998919</v>
       </c>
       <c r="Y99" t="n">
         <v>10</v>
@@ -8648,7 +8648,7 @@
         <v>18.60135664732058</v>
       </c>
       <c r="P100" t="n">
-        <v>31.16646275320444</v>
+        <v>31.16646275320443</v>
       </c>
       <c r="Q100" t="n">
         <v>0</v>
@@ -8663,10 +8663,10 @@
         <v>0</v>
       </c>
       <c r="U100" t="n">
-        <v>1.041550365627751e-10</v>
+        <v>1.041550365622056e-10</v>
       </c>
       <c r="V100" t="n">
-        <v>9.011928441896467e-05</v>
+        <v>9.011928441986518e-05</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.002823500000005197</v>
+        <v>0.001793200000001605</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
@@ -8706,7 +8706,7 @@
         <v>121.0113365993536</v>
       </c>
       <c r="H101" t="n">
-        <v>8.856845623041155</v>
+        <v>8.856845623041153</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8745,10 +8745,10 @@
         <v>0</v>
       </c>
       <c r="U101" t="n">
-        <v>8.057824991693631e-11</v>
+        <v>8.05782499126468e-11</v>
       </c>
       <c r="V101" t="n">
-        <v>9.196118749677735e-05</v>
+        <v>9.196118749692551e-05</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.004713499999994042</v>
+        <v>0.001790599999999642</v>
       </c>
       <c r="Y101" t="n">
         <v>9</v>
